--- a/Sh_report.xlsx
+++ b/Sh_report.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Swing" sheetId="1" r:id="rId1"/>
+    <sheet name="Shortlist" sheetId="3" r:id="rId2"/>
+    <sheet name="Watchlist" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Watchlist!$A$2:$K$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>S1</t>
   </si>
@@ -79,6 +84,84 @@
   </si>
   <si>
     <t>Extra added</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>MACD</t>
+  </si>
+  <si>
+    <t>26/05/2019</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>COALINDIA</t>
+  </si>
+  <si>
+    <t>GRASIM</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>SRSI</t>
+  </si>
+  <si>
+    <t>S/R</t>
+  </si>
+  <si>
+    <t>Bband</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>ADX</t>
+  </si>
+  <si>
+    <t>NTPC</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>YESBANK</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>INFRATEL</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>StopLoss</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
@@ -397,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +500,7 @@
     <col min="13" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -460,8 +543,11 @@
       <c r="N1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -488,22 +574,22 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -512,4 +598,332 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>3079.35</v>
+      </c>
+      <c r="D3">
+        <v>3171</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2986</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>570.29999999999995</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>907.1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>665.7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>278.60000000000002</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:K12">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="S1"/>
+        <filter val="S2"/>
+        <filter val="S3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>